--- a/Bao Cao/MS Project + Excel/Table.xlsx
+++ b/Bao Cao/MS Project + Excel/Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAMU.UiT\Desktop\quanlykhachsan-ood-qldn\Bao Cao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAMU.UiT\Desktop\quanlykhachsan-ood-qldn\Bao Cao\MS Project + Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1192,6 +1192,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,33 +1227,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1337,11 +1337,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1567603936"/>
-        <c:axId val="-1567595776"/>
+        <c:axId val="2129376128"/>
+        <c:axId val="2129378304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1567603936"/>
+        <c:axId val="2129376128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,7 +1350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1567595776"/>
+        <c:crossAx val="2129378304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1358,7 +1358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1567595776"/>
+        <c:axId val="2129378304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1567603936"/>
+        <c:crossAx val="2129376128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5578,7 +5578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="20070" topLeftCell="K1"/>
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="D44" sqref="D44"/>
       <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -5621,31 +5621,31 @@
       <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="89" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89" t="s">
+      <c r="I2" s="97"/>
+      <c r="J2" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
       <c r="O2" s="61" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="60">
         <v>0</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="60"/>
-      <c r="I3" s="88"/>
+      <c r="I3" s="97"/>
       <c r="J3" s="60">
         <v>0</v>
       </c>
@@ -6024,15 +6024,15 @@
       <c r="A12" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="91">
+      <c r="B12" s="92">
         <f>SUM(B10:F10)</f>
         <v>19517491.123191465</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
       <c r="J12" s="50"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -6046,11 +6046,11 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="68"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
       <c r="G16" s="58"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
@@ -6081,14 +6081,14 @@
       <c r="E18" s="65"/>
       <c r="F18" s="65"/>
       <c r="G18" s="65"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="89" t="s">
+      <c r="I18" s="97"/>
+      <c r="J18" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
       <c r="O18" s="61" t="s">
         <v>194</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="E19" s="61"/>
       <c r="F19" s="61"/>
       <c r="G19" s="61"/>
-      <c r="I19" s="88"/>
+      <c r="I19" s="97"/>
       <c r="J19" s="60">
         <v>0</v>
       </c>
@@ -6124,14 +6124,14 @@
       <c r="O19" s="60"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
-      <c r="B20" s="94" t="s">
+      <c r="A20" s="95"/>
+      <c r="B20" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="61" t="s">
         <v>194</v>
       </c>
@@ -6161,7 +6161,7 @@
       <c r="O20" s="73"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="60">
         <v>0</v>
       </c>
@@ -6485,35 +6485,35 @@
       <c r="A30" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="91">
+      <c r="B30" s="92">
         <f>SUM(B28:F28)</f>
         <v>-439814.81481481716</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="94"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="97" t="s">
+      <c r="A34" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
     </row>
     <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="67" t="s">
@@ -6641,11 +6641,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:N2"/>
@@ -6653,6 +6648,11 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bao Cao/MS Project + Excel/Table.xlsx
+++ b/Bao Cao/MS Project + Excel/Table.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAMU.UiT\Desktop\quanlykhachsan-ood-qldn\Bao Cao\MS Project + Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7890" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7935" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Chức năng" sheetId="1" r:id="rId1"/>
@@ -17,13 +12,15 @@
     <sheet name="Bản kế hoạch" sheetId="3" r:id="rId3"/>
     <sheet name="Bản kế hoạch 2" sheetId="4" r:id="rId4"/>
     <sheet name="NPV" sheetId="5" r:id="rId5"/>
+    <sheet name="Cost" sheetId="6" r:id="rId6"/>
+    <sheet name="Thoi gian hoan thanh" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="263">
   <si>
     <t>Chức năng</t>
   </si>
@@ -650,18 +647,182 @@
   </si>
   <si>
     <t>Varriance</t>
+  </si>
+  <si>
+    <t>Bảo trì</t>
+  </si>
+  <si>
+    <t>Planed Values - PV (BCWS)</t>
+  </si>
+  <si>
+    <t>Earned Value - EV (BCWP)</t>
+  </si>
+  <si>
+    <t>AC (ACWP)</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>EAC</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>VAC</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Task name</t>
+  </si>
+  <si>
+    <t>Hoạt động</t>
+  </si>
+  <si>
+    <t>1. Tập hợp thành viên cho nhóm</t>
+  </si>
+  <si>
+    <t>2. Xác định đề tài</t>
+  </si>
+  <si>
+    <t>3. Xác định yêu cầu đề tài</t>
+  </si>
+  <si>
+    <t>3.1. Xác định các yêu cầu của phần mềm</t>
+  </si>
+  <si>
+    <t>3.2. Đặc tả các yêu cầu phần mềm (Thiết kế biểu mẫu và quy định)</t>
+  </si>
+  <si>
+    <t>3.3. Mô hình hóa các yêu cầu</t>
+  </si>
+  <si>
+    <t>3.4. Xác định môi trường phát triển của dự án</t>
+  </si>
+  <si>
+    <t>4. Phân tích phần mềm</t>
+  </si>
+  <si>
+    <t>5. Thiết kế phần mềm</t>
+  </si>
+  <si>
+    <t>5.1. Thiết kế các yêu cầu hệ thống phần mềm</t>
+  </si>
+  <si>
+    <t>5.2. Mô hình hóa dữ liệu</t>
+  </si>
+  <si>
+    <t>5.3. Thiết kế dữ liệu cho phần mềm</t>
+  </si>
+  <si>
+    <t>5.4. Thiết kế giao diện</t>
+  </si>
+  <si>
+    <t>5.5.. Thiết kế xử lí</t>
+  </si>
+  <si>
+    <t>5.6.Tổng hợp tài liệu phần thiết kế phần mềm</t>
+  </si>
+  <si>
+    <t>5.7. Kết nối các module lần cuối</t>
+  </si>
+  <si>
+    <t>6. Thực thi và cài đặt</t>
+  </si>
+  <si>
+    <t>7. Kiểm thử</t>
+  </si>
+  <si>
+    <t>8. Viết hướng dẫn sử dụng phần mềm</t>
+  </si>
+  <si>
+    <t>9. Viết báo cáo đồ án</t>
+  </si>
+  <si>
+    <t>10. In báo cáo</t>
+  </si>
+  <si>
+    <t>11. Tổng kết chi phí</t>
+  </si>
+  <si>
+    <t>12. Bảo trì</t>
+  </si>
+  <si>
+    <t>Planned Value (PV) của tháng</t>
+  </si>
+  <si>
+    <t>Planned Value (PV) theo tháng</t>
+  </si>
+  <si>
+    <t>Actual Cost (AC) theo tháng</t>
+  </si>
+  <si>
+    <t>Actual Cost (AC) của tháng</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Earned Value (EV) của tháng</t>
+  </si>
+  <si>
+    <t>Earned Value (EV) theo tháng</t>
+  </si>
+  <si>
+    <t>Số liệu tới cuối tháng 12</t>
+  </si>
+  <si>
+    <t>CV (Cost Variance) = EV - AC</t>
+  </si>
+  <si>
+    <t>SV (Schedule Variance) = EV - PV</t>
+  </si>
+  <si>
+    <t>CPI (Cost Performance Index) = EV / AC</t>
+  </si>
+  <si>
+    <t>SPI (Schedule performance index) = EV / PV</t>
+  </si>
+  <si>
+    <t>Estimate at Completion (EAC) = BAC/CPI</t>
+  </si>
+  <si>
+    <t>Estimated time to complete</t>
+  </si>
+  <si>
+    <t>Earned Value (EV)</t>
+  </si>
+  <si>
+    <t>Planned Value (PV)</t>
+  </si>
+  <si>
+    <t>Actual Cost (AC)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_([$VND]\ * #,##0_);_([$VND]\ * \(#,##0\);_([$VND]\ * &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="_([$VND]\ * #,##0.00_);_([$VND]\ * \(#,##0.00\);_([$VND]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="182" formatCode="_([$VND]\ * #,##0_);_([$VND]\ * \(#,##0\);_([$VND]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,13 +867,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -765,8 +919,37 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,8 +972,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -943,15 +1131,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1020,12 +1224,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1055,13 +1253,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1076,40 +1268,40 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1118,34 +1310,34 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1154,44 +1346,68 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1201,16 +1417,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1219,17 +1426,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="3" builtinId="21"/>
@@ -1241,9 +1494,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1337,11 +1587,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2129376128"/>
-        <c:axId val="2129378304"/>
+        <c:axId val="129588736"/>
+        <c:axId val="93000768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2129376128"/>
+        <c:axId val="129588736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,7 +1600,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129378304"/>
+        <c:crossAx val="93000768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1358,7 +1608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129378304"/>
+        <c:axId val="93000768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,14 +1619,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129376128"/>
+        <c:crossAx val="129588736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1482,7 +1731,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1517,7 +1766,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1730,7 +1979,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1896,7 +2145,8 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:F11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2145,8 +2395,8 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56:XFD56"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,1883 +2404,1883 @@
     <col min="1" max="1" width="6.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="23" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="84" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="85" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="80" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="28" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:10" s="26" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="81" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="38">
         <v>41512.333333333336</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="38">
         <v>41647.449305555558</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="83">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="78">
         <v>10000000</v>
       </c>
-      <c r="I2" s="31">
-        <v>48610000</v>
-      </c>
-      <c r="J2" s="87">
-        <v>48610000</v>
+      <c r="I2" s="29">
+        <v>53210000</v>
+      </c>
+      <c r="J2" s="82">
+        <v>53210000</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="39">
         <v>41512.333333333336</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="39">
         <v>41519.333333333336</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="31">
-        <v>0</v>
-      </c>
-      <c r="I3" s="31">
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="29">
         <v>565000</v>
       </c>
-      <c r="J3" s="87">
+      <c r="J3" s="82">
         <v>565000</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="30">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="39">
         <v>41519.333333333336</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="39">
         <v>41530.708333333336</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="31">
-        <v>0</v>
-      </c>
-      <c r="I4" s="31">
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29">
         <v>1925000</v>
       </c>
-      <c r="J4" s="87">
+      <c r="J4" s="82">
         <v>1925000</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="39">
         <v>41530.449305555558</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="39">
         <v>41549.449305555558</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31">
-        <v>0</v>
-      </c>
-      <c r="I5" s="31">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="29">
+        <v>0</v>
+      </c>
+      <c r="I5" s="29">
         <v>5480000</v>
       </c>
-      <c r="J5" s="87">
+      <c r="J5" s="82">
         <v>5480000</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="30">
         <v>3.1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="39">
         <v>41530.449305555558</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="39">
         <v>41538.470138888886</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31">
-        <v>0</v>
-      </c>
-      <c r="I6" s="31">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="29">
         <v>2240000</v>
       </c>
-      <c r="J6" s="87">
+      <c r="J6" s="82">
         <v>2240000</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="39">
         <v>41530.449305555558</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="39">
         <v>41535.449305555558</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="31">
-        <v>0</v>
-      </c>
-      <c r="I7" s="31">
+      <c r="H7" s="29">
+        <v>0</v>
+      </c>
+      <c r="I7" s="29">
         <v>1400000</v>
       </c>
-      <c r="J7" s="87">
+      <c r="J7" s="82">
         <v>1400000</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="39">
         <v>41535.449305555558</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="39">
         <v>41538.470138888886</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="31">
-        <v>0</v>
-      </c>
-      <c r="I8" s="31">
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29">
         <v>840000</v>
       </c>
-      <c r="J8" s="87">
+      <c r="J8" s="82">
         <v>840000</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="30">
         <v>3.2</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="39">
         <v>41538.470138888886</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="39">
         <v>41542.449305555558</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="31">
-        <v>0</v>
-      </c>
-      <c r="I9" s="31">
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
+      <c r="I9" s="29">
         <v>1280000</v>
       </c>
-      <c r="J9" s="87">
+      <c r="J9" s="82">
         <v>1280000</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="30">
         <v>3.3</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="39">
         <v>41542.449305555558</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="39">
         <v>41547.449305555558</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="31">
-        <v>0</v>
-      </c>
-      <c r="I10" s="31">
+      <c r="H10" s="29">
+        <v>0</v>
+      </c>
+      <c r="I10" s="29">
         <v>1400000</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="82">
         <v>1400000</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="30">
         <v>3.4</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="39">
         <v>41547.449305555558</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="39">
         <v>41549.449305555558</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="31">
-        <v>0</v>
-      </c>
-      <c r="I11" s="31">
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="29">
         <v>560000</v>
       </c>
-      <c r="J11" s="87">
+      <c r="J11" s="82">
         <v>560000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="30">
         <v>4</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="39">
         <v>41549.449305555558</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="39">
         <v>41557.449305555558</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31">
-        <v>0</v>
-      </c>
-      <c r="I12" s="31">
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="29">
         <v>3760000</v>
       </c>
-      <c r="J12" s="87">
+      <c r="J12" s="82">
         <v>3760000</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="30">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="39">
         <v>41549.449305555558</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="39">
         <v>41552.470138888886</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H13" s="31">
-        <v>0</v>
-      </c>
-      <c r="I13" s="31">
+      <c r="H13" s="29">
+        <v>0</v>
+      </c>
+      <c r="I13" s="29">
         <v>960000</v>
       </c>
-      <c r="J13" s="87">
+      <c r="J13" s="82">
         <v>960000</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="30">
         <v>4.2</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="39">
         <v>41552.470138888886</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="39">
         <v>41557.449305555558</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="31">
-        <v>0</v>
-      </c>
-      <c r="I14" s="31">
+      <c r="H14" s="29">
+        <v>0</v>
+      </c>
+      <c r="I14" s="29">
         <v>1400000</v>
       </c>
-      <c r="J14" s="87">
+      <c r="J14" s="82">
         <v>1400000</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="30">
         <v>4.3</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="39">
         <v>41552.470138888886</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="39">
         <v>41557.449305555558</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="31">
-        <v>0</v>
-      </c>
-      <c r="I15" s="31">
+      <c r="H15" s="29">
+        <v>0</v>
+      </c>
+      <c r="I15" s="29">
         <v>1400000</v>
       </c>
-      <c r="J15" s="87">
+      <c r="J15" s="82">
         <v>1400000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="A16" s="30">
         <v>5</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="39">
         <v>41557.449305555558</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="39">
         <v>41624.449305555558</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="31">
-        <v>0</v>
-      </c>
-      <c r="I16" s="31">
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="29">
+        <v>0</v>
+      </c>
+      <c r="I16" s="29">
         <v>20040000</v>
       </c>
-      <c r="J16" s="87">
+      <c r="J16" s="82">
         <v>20040000</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="30">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="39">
         <v>41557.449305555558</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="39">
         <v>41566.470138888886</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31">
-        <v>0</v>
-      </c>
-      <c r="I17" s="31">
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="29">
+        <v>0</v>
+      </c>
+      <c r="I17" s="29">
         <v>3480000</v>
       </c>
-      <c r="J17" s="87">
+      <c r="J17" s="82">
         <v>3480000</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="39">
         <v>41557.449305555558</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="39">
         <v>41559.470138888886</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="31">
-        <v>0</v>
-      </c>
-      <c r="I18" s="31">
+      <c r="H18" s="29">
+        <v>0</v>
+      </c>
+      <c r="I18" s="29">
         <v>560000</v>
       </c>
-      <c r="J18" s="87">
+      <c r="J18" s="82">
         <v>560000</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="39">
         <v>41559.470138888886</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="39">
         <v>41561.449305555558</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="31">
-        <v>0</v>
-      </c>
-      <c r="I19" s="31">
+      <c r="H19" s="29">
+        <v>0</v>
+      </c>
+      <c r="I19" s="29">
         <v>560000</v>
       </c>
-      <c r="J19" s="87">
+      <c r="J19" s="82">
         <v>560000</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="39">
         <v>41561.449305555558</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="39">
         <v>41562.449305555558</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="31">
-        <v>0</v>
-      </c>
-      <c r="I20" s="31">
+      <c r="H20" s="29">
+        <v>0</v>
+      </c>
+      <c r="I20" s="29">
         <v>320000.00000000006</v>
       </c>
-      <c r="J20" s="87">
+      <c r="J20" s="82">
         <v>320000.00000000006</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="39">
         <v>41561.449305555558</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="39">
         <v>41562.449305555558</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="31">
-        <v>0</v>
-      </c>
-      <c r="I21" s="31">
+      <c r="H21" s="29">
+        <v>0</v>
+      </c>
+      <c r="I21" s="29">
         <v>280000</v>
       </c>
-      <c r="J21" s="87">
+      <c r="J21" s="82">
         <v>280000</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="39">
         <v>41562.449305555558</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="39">
         <v>41563.449305555558</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="31">
-        <v>0</v>
-      </c>
-      <c r="I22" s="31">
+      <c r="H22" s="29">
+        <v>0</v>
+      </c>
+      <c r="I22" s="29">
         <v>280000</v>
       </c>
-      <c r="J22" s="87">
+      <c r="J22" s="82">
         <v>280000</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="39">
         <v>41562.449305555558</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="39">
         <v>41563.449305555558</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="31">
-        <v>0</v>
-      </c>
-      <c r="I23" s="31">
+      <c r="H23" s="29">
+        <v>0</v>
+      </c>
+      <c r="I23" s="29">
         <v>280000</v>
       </c>
-      <c r="J23" s="87">
+      <c r="J23" s="82">
         <v>280000</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="39">
         <v>41563.449305555558</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="39">
         <v>41564.449305555558</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H24" s="31">
-        <v>0</v>
-      </c>
-      <c r="I24" s="31">
+      <c r="H24" s="29">
+        <v>0</v>
+      </c>
+      <c r="I24" s="29">
         <v>320000.00000000006</v>
       </c>
-      <c r="J24" s="87">
+      <c r="J24" s="82">
         <v>320000.00000000006</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="39">
         <v>41563.449305555558</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="39">
         <v>41564.449305555558</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="31">
-        <v>0</v>
-      </c>
-      <c r="I25" s="31">
+      <c r="H25" s="29">
+        <v>0</v>
+      </c>
+      <c r="I25" s="29">
         <v>280000</v>
       </c>
-      <c r="J25" s="87">
+      <c r="J25" s="82">
         <v>280000</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="39">
         <v>41564.449305555558</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="39">
         <v>41565.449305555558</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="31">
-        <v>0</v>
-      </c>
-      <c r="I26" s="31">
+      <c r="H26" s="29">
+        <v>0</v>
+      </c>
+      <c r="I26" s="29">
         <v>320000.00000000006</v>
       </c>
-      <c r="J26" s="87">
+      <c r="J26" s="82">
         <v>320000.00000000006</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="39">
         <v>41565.449305555558</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="39">
         <v>41566.470138888886</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="31">
-        <v>0</v>
-      </c>
-      <c r="I27" s="31">
+      <c r="H27" s="29">
+        <v>0</v>
+      </c>
+      <c r="I27" s="29">
         <v>280000</v>
       </c>
-      <c r="J27" s="87">
+      <c r="J27" s="82">
         <v>280000</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+      <c r="A28" s="30">
         <v>5.2</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="39">
         <v>41566.470138888886</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="39">
         <v>41573.803472222222</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="31">
-        <v>0</v>
-      </c>
-      <c r="I28" s="31">
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="29">
+        <v>0</v>
+      </c>
+      <c r="I28" s="29">
         <v>2280000</v>
       </c>
-      <c r="J28" s="87">
+      <c r="J28" s="82">
         <v>2280000</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="39">
         <v>41566.470138888886</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="39">
         <v>41572.449305555558</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="31">
-        <v>0</v>
-      </c>
-      <c r="I29" s="31">
+      <c r="H29" s="29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="29">
         <v>1680000</v>
       </c>
-      <c r="J29" s="87">
+      <c r="J29" s="82">
         <v>1680000</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="39">
         <v>41572.449305555558</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="39">
         <v>41573.470138888886</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="31">
-        <v>0</v>
-      </c>
-      <c r="I30" s="31">
+      <c r="H30" s="29">
+        <v>0</v>
+      </c>
+      <c r="I30" s="29">
         <v>280000</v>
       </c>
-      <c r="J30" s="87">
+      <c r="J30" s="82">
         <v>280000</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="39">
         <v>41573.470138888886</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="39">
         <v>41573.803472222222</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="31">
-        <v>0</v>
-      </c>
-      <c r="I31" s="31">
+      <c r="H31" s="29">
+        <v>0</v>
+      </c>
+      <c r="I31" s="29">
         <v>320000.00000000006</v>
       </c>
-      <c r="J31" s="87">
+      <c r="J31" s="82">
         <v>320000.00000000006</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="A32" s="30">
         <v>5.3</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="39">
         <v>41573.803472222222</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="39">
         <v>41586.449305555558</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="31">
-        <v>0</v>
-      </c>
-      <c r="I32" s="31">
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
+      <c r="I32" s="29">
         <v>3400000</v>
       </c>
-      <c r="J32" s="87">
+      <c r="J32" s="82">
         <v>3400000</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="39">
         <v>41573.803472222222</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="39">
         <v>41578.449305555558</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="31">
-        <v>0</v>
-      </c>
-      <c r="I33" s="31">
+      <c r="H33" s="29">
+        <v>0</v>
+      </c>
+      <c r="I33" s="29">
         <v>1120000</v>
       </c>
-      <c r="J33" s="87">
+      <c r="J33" s="82">
         <v>1120000</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="39">
         <v>41578.449305555558</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="39">
         <v>41584.449305555558</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="31">
-        <v>0</v>
-      </c>
-      <c r="I34" s="31">
+      <c r="H34" s="29">
+        <v>0</v>
+      </c>
+      <c r="I34" s="29">
         <v>1680000</v>
       </c>
-      <c r="J34" s="87">
+      <c r="J34" s="82">
         <v>1680000</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="39">
         <v>41584.449305555558</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="39">
         <v>41585.449305555558</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H35" s="31">
-        <v>0</v>
-      </c>
-      <c r="I35" s="31">
+      <c r="H35" s="29">
+        <v>0</v>
+      </c>
+      <c r="I35" s="29">
         <v>320000.00000000006</v>
       </c>
-      <c r="J35" s="87">
+      <c r="J35" s="82">
         <v>320000.00000000006</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="39">
         <v>41585.449305555558</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="39">
         <v>41586.449305555558</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="31">
-        <v>0</v>
-      </c>
-      <c r="I36" s="31">
+      <c r="H36" s="29">
+        <v>0</v>
+      </c>
+      <c r="I36" s="29">
         <v>280000</v>
       </c>
-      <c r="J36" s="87">
+      <c r="J36" s="82">
         <v>280000</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="A37" s="30">
         <v>5.4</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="39">
         <v>41586.449305555558</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="39">
         <v>41604.449305555558</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="31">
-        <v>0</v>
-      </c>
-      <c r="I37" s="31">
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="29">
+        <v>0</v>
+      </c>
+      <c r="I37" s="29">
         <v>5200000</v>
       </c>
-      <c r="J37" s="87">
+      <c r="J37" s="82">
         <v>5200000</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="39">
         <v>41586.449305555558</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="39">
         <v>41591.449305555558</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="31">
-        <v>0</v>
-      </c>
-      <c r="I38" s="31">
+      <c r="H38" s="29">
+        <v>0</v>
+      </c>
+      <c r="I38" s="29">
         <v>1400000</v>
       </c>
-      <c r="J38" s="87">
+      <c r="J38" s="82">
         <v>1400000</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="39">
         <v>41591.449305555558</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="39">
         <v>41594.803472222222</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="31">
-        <v>0</v>
-      </c>
-      <c r="I39" s="31">
+      <c r="H39" s="29">
+        <v>0</v>
+      </c>
+      <c r="I39" s="29">
         <v>1120000</v>
       </c>
-      <c r="J39" s="87">
+      <c r="J39" s="82">
         <v>1120000</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="39">
         <v>41594.803472222222</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="39">
         <v>41600.449305555558</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="31">
-        <v>0</v>
-      </c>
-      <c r="I40" s="31">
+      <c r="H40" s="29">
+        <v>0</v>
+      </c>
+      <c r="I40" s="29">
         <v>1400000</v>
       </c>
-      <c r="J40" s="87">
+      <c r="J40" s="82">
         <v>1400000</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="39">
         <v>41600.449305555558</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="39">
         <v>41601.803472222222</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H41" s="31">
-        <v>0</v>
-      </c>
-      <c r="I41" s="31">
+      <c r="H41" s="29">
+        <v>0</v>
+      </c>
+      <c r="I41" s="29">
         <v>640000.00000000012</v>
       </c>
-      <c r="J41" s="87">
+      <c r="J41" s="82">
         <v>640000.00000000012</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="39">
         <v>41601.803472222222</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="39">
         <v>41604.449305555558</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="G42" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H42" s="31">
-        <v>0</v>
-      </c>
-      <c r="I42" s="31">
+      <c r="H42" s="29">
+        <v>0</v>
+      </c>
+      <c r="I42" s="29">
         <v>640000.00000000012</v>
       </c>
-      <c r="J42" s="87">
+      <c r="J42" s="82">
         <v>640000.00000000012</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
+      <c r="A43" s="30">
         <v>5.5</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="39">
         <v>41604.449305555558</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="39">
         <v>41617.449305555558</v>
       </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="31">
-        <v>0</v>
-      </c>
-      <c r="I43" s="31">
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="29">
+        <v>0</v>
+      </c>
+      <c r="I43" s="29">
         <v>3720000</v>
       </c>
-      <c r="J43" s="87">
+      <c r="J43" s="82">
         <v>3720000</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="39">
         <v>41604.449305555558</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="39">
         <v>41607.449305555558</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="31">
-        <v>0</v>
-      </c>
-      <c r="I44" s="31">
+      <c r="H44" s="29">
+        <v>0</v>
+      </c>
+      <c r="I44" s="29">
         <v>840000</v>
       </c>
-      <c r="J44" s="87">
+      <c r="J44" s="82">
         <v>840000</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="39">
         <v>41607.449305555558</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="39">
         <v>41611.449305555558</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="G45" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="31">
-        <v>0</v>
-      </c>
-      <c r="I45" s="31">
+      <c r="H45" s="29">
+        <v>0</v>
+      </c>
+      <c r="I45" s="29">
         <v>1120000</v>
       </c>
-      <c r="J45" s="87">
+      <c r="J45" s="82">
         <v>1120000</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="39">
         <v>41611.449305555558</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="39">
         <v>41615.470138888886</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="31">
-        <v>0</v>
-      </c>
-      <c r="I46" s="31">
+      <c r="H46" s="29">
+        <v>0</v>
+      </c>
+      <c r="I46" s="29">
         <v>1120000</v>
       </c>
-      <c r="J46" s="87">
+      <c r="J46" s="82">
         <v>1120000</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D47" s="39">
         <v>41615.470138888886</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="39">
         <v>41615.803472222222</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G47" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H47" s="31">
-        <v>0</v>
-      </c>
-      <c r="I47" s="31">
+      <c r="H47" s="29">
+        <v>0</v>
+      </c>
+      <c r="I47" s="29">
         <v>320000.00000000006</v>
       </c>
-      <c r="J47" s="87">
+      <c r="J47" s="82">
         <v>320000.00000000006</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="39">
         <v>41615.803472222222</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="39">
         <v>41617.449305555558</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="33" t="s">
+      <c r="G48" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H48" s="31">
-        <v>0</v>
-      </c>
-      <c r="I48" s="31">
+      <c r="H48" s="29">
+        <v>0</v>
+      </c>
+      <c r="I48" s="29">
         <v>320000.00000000006</v>
       </c>
-      <c r="J48" s="87">
+      <c r="J48" s="82">
         <v>320000.00000000006</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="32">
+      <c r="A49" s="30">
         <v>5.6</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="39">
         <v>41617.449305555558</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="39">
         <v>41620.449305555558</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="G49" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="31">
-        <v>0</v>
-      </c>
-      <c r="I49" s="31">
+      <c r="H49" s="29">
+        <v>0</v>
+      </c>
+      <c r="I49" s="29">
         <v>840000</v>
       </c>
-      <c r="J49" s="87">
+      <c r="J49" s="82">
         <v>840000</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="32">
+      <c r="A50" s="30">
         <v>5.7</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="43">
+      <c r="D50" s="39">
         <v>41620.449305555558</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="39">
         <v>41624.449305555558</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="G50" s="33" t="s">
+      <c r="G50" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="31">
-        <v>0</v>
-      </c>
-      <c r="I50" s="31">
+      <c r="H50" s="29">
+        <v>0</v>
+      </c>
+      <c r="I50" s="29">
         <v>1120000</v>
       </c>
-      <c r="J50" s="87">
+      <c r="J50" s="82">
         <v>1120000</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="32">
+      <c r="A51" s="30">
         <v>6</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="43">
+      <c r="D51" s="39">
         <v>41624.449305555558</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="39">
         <v>41631.449305555558</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="33" t="s">
+      <c r="G51" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H51" s="31">
-        <v>0</v>
-      </c>
-      <c r="I51" s="31">
+      <c r="H51" s="29">
+        <v>0</v>
+      </c>
+      <c r="I51" s="29">
         <v>2240000</v>
       </c>
-      <c r="J51" s="87">
+      <c r="J51" s="82">
         <v>2240000</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="32">
+      <c r="A52" s="30">
         <v>7</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="43">
+      <c r="D52" s="39">
         <v>41631.449305555558</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="39">
         <v>41634.449305555558</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G52" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="31">
-        <v>0</v>
-      </c>
-      <c r="I52" s="31">
+      <c r="H52" s="29">
+        <v>0</v>
+      </c>
+      <c r="I52" s="29">
         <v>840000</v>
       </c>
-      <c r="J52" s="87">
+      <c r="J52" s="82">
         <v>840000</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="32">
+      <c r="A53" s="30">
         <v>8</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="43">
+      <c r="D53" s="39">
         <v>41634.449305555558</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="39">
         <v>41636.470138888886</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H53" s="31">
-        <v>0</v>
-      </c>
-      <c r="I53" s="31">
+      <c r="H53" s="29">
+        <v>0</v>
+      </c>
+      <c r="I53" s="29">
         <v>640000.00000000012</v>
       </c>
-      <c r="J53" s="87">
+      <c r="J53" s="82">
         <v>640000.00000000012</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="32">
+      <c r="A54" s="30">
         <v>9</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="39">
         <v>41636.470138888886</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="39">
         <v>41640.449305555558</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H54" s="31">
-        <v>0</v>
-      </c>
-      <c r="I54" s="31">
+      <c r="H54" s="29">
+        <v>0</v>
+      </c>
+      <c r="I54" s="29">
         <v>1280000.0000000002</v>
       </c>
-      <c r="J54" s="87">
+      <c r="J54" s="82">
         <v>1280000.0000000002</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="32">
+      <c r="A55" s="30">
         <v>10</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="43">
+      <c r="D55" s="39">
         <v>41640.449305555558</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="39">
         <v>41641.449305555558</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="H55" s="31">
-        <v>0</v>
-      </c>
-      <c r="I55" s="31">
+      <c r="H55" s="29">
+        <v>0</v>
+      </c>
+      <c r="I55" s="29">
         <v>60000</v>
       </c>
-      <c r="J55" s="87">
+      <c r="J55" s="82">
         <v>60000</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="32">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="34">
         <v>11</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="40">
+        <v>41646.449305555558</v>
+      </c>
+      <c r="E56" s="40">
+        <v>41647.449305555558</v>
+      </c>
+      <c r="F56" s="36"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="29">
+        <f>SUM(H57:H59)</f>
+        <v>380000</v>
+      </c>
+      <c r="I56" s="29"/>
+      <c r="J56" s="82">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="30">
+        <v>11.1</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="39">
+        <v>41646.449305555558</v>
+      </c>
+      <c r="E57" s="39">
+        <v>41647.449305555558</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="29">
+        <v>200000</v>
+      </c>
+      <c r="I57" s="29">
+        <v>200000</v>
+      </c>
+      <c r="J57" s="82">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="30">
+        <v>11.2</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="39">
+        <v>41646.449305555558</v>
+      </c>
+      <c r="E58" s="39">
+        <v>41647.449305555558</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H58" s="29">
+        <v>80000</v>
+      </c>
+      <c r="I58" s="29">
+        <v>80000.000000000015</v>
+      </c>
+      <c r="J58" s="82">
+        <v>80000.000000000015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="30">
+        <v>11.3</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="39">
+        <v>41646.449305555558</v>
+      </c>
+      <c r="E59" s="39">
+        <v>41647.449305555558</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="31"/>
+      <c r="H59" s="29">
+        <v>100000</v>
+      </c>
+      <c r="I59" s="29">
+        <v>100000</v>
+      </c>
+      <c r="J59" s="82">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="30">
+        <v>12</v>
+      </c>
+      <c r="B60" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C60" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="43">
+      <c r="D60" s="39">
         <v>41641.449305555558</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E60" s="39">
         <v>41646.449305555558</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F60" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="G56" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="31">
-        <v>0</v>
-      </c>
-      <c r="I56" s="31">
-        <v>1400000</v>
-      </c>
-      <c r="J56" s="87">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="36">
-        <v>12</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C57" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="44">
-        <v>41646.449305555558</v>
-      </c>
-      <c r="E57" s="44">
-        <v>41647.449305555558</v>
-      </c>
-      <c r="F57" s="38"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="31">
-        <f>SUM(H58:H60)</f>
-        <v>380000</v>
-      </c>
-      <c r="I57" s="31"/>
-      <c r="J57" s="87">
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="32">
-        <v>12.1</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="43">
-        <v>41646.449305555558</v>
-      </c>
-      <c r="E58" s="43">
-        <v>41647.449305555558</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G58" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="H58" s="31">
-        <v>200000</v>
-      </c>
-      <c r="I58" s="31">
-        <v>200000</v>
-      </c>
-      <c r="J58" s="87">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="32">
-        <v>12.2</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="43">
-        <v>41646.449305555558</v>
-      </c>
-      <c r="E59" s="43">
-        <v>41647.449305555558</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="H59" s="31">
-        <v>80000</v>
-      </c>
-      <c r="I59" s="31">
-        <v>80000.000000000015</v>
-      </c>
-      <c r="J59" s="87">
-        <v>80000.000000000015</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="32">
-        <v>12.3</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="43">
-        <v>41646.449305555558</v>
-      </c>
-      <c r="E60" s="43">
-        <v>41647.449305555558</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60" s="33"/>
-      <c r="H60" s="31">
-        <v>100000</v>
-      </c>
-      <c r="I60" s="31">
-        <v>100000</v>
-      </c>
-      <c r="J60" s="87">
-        <v>100000</v>
+      <c r="G60" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="H60" s="29">
+        <v>0</v>
+      </c>
+      <c r="I60" s="82">
+        <v>6000000</v>
+      </c>
+      <c r="J60" s="82">
+        <v>6000000</v>
       </c>
     </row>
   </sheetData>
@@ -4041,1529 +4291,1712 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:H60"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="77" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="38">
         <v>41512.333333333336</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="38">
         <v>41647.449305555558</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31">
-        <v>48610000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="78">
+        <v>10000000</v>
+      </c>
+      <c r="I2" s="29">
+        <v>53210000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="39">
         <v>41512.333333333336</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="39">
         <v>41519.333333333336</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="29">
         <v>565000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="39">
         <v>41519.333333333336</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="39">
         <v>41530.708333333336</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29">
         <v>1925000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="39">
         <v>41530.449305555558</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="39">
         <v>41549.449305555558</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="29">
+        <v>0</v>
+      </c>
+      <c r="I5" s="29">
         <v>5480000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
         <v>3.1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="39">
         <v>41530.449305555558</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="39">
         <v>41538.470138888886</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="29">
         <v>2240000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="39">
         <v>41530.449305555558</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="39">
         <v>41535.449305555558</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="29">
+        <v>0</v>
+      </c>
+      <c r="I7" s="29">
         <v>1400000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="39">
         <v>41535.449305555558</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="39">
         <v>41538.470138888886</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29">
         <v>840000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
         <v>3.2</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="39">
         <v>41538.470138888886</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="39">
         <v>41542.449305555558</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
+      <c r="I9" s="29">
         <v>1280000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
         <v>3.3</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="39">
         <v>41542.449305555558</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="39">
         <v>41547.449305555558</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="29">
+        <v>0</v>
+      </c>
+      <c r="I10" s="29">
         <v>1400000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
         <v>3.4</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="39">
         <v>41547.449305555558</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="39">
         <v>41549.449305555558</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="29">
         <v>560000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
         <v>4</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="39">
         <v>41549.449305555558</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="39">
         <v>41557.449305555558</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31">
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="29">
         <v>3760000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="39">
         <v>41549.449305555558</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="39">
         <v>41552.470138888886</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="29">
+        <v>0</v>
+      </c>
+      <c r="I13" s="29">
         <v>960000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
         <v>4.2</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="39">
         <v>41552.470138888886</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="39">
         <v>41557.449305555558</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="29">
+        <v>0</v>
+      </c>
+      <c r="I14" s="29">
         <v>1400000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
         <v>4.3</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="39">
         <v>41552.470138888886</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="39">
         <v>41557.449305555558</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="29">
+        <v>0</v>
+      </c>
+      <c r="I15" s="29">
         <v>1400000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
         <v>5</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="39">
         <v>41557.449305555558</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="39">
         <v>41624.449305555558</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="31">
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="29">
+        <v>0</v>
+      </c>
+      <c r="I16" s="29">
         <v>20040000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="39">
         <v>41557.449305555558</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="39">
         <v>41566.470138888886</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31">
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="29">
+        <v>0</v>
+      </c>
+      <c r="I17" s="29">
         <v>3480000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="39">
         <v>41557.449305555558</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="39">
         <v>41559.470138888886</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="29">
+        <v>0</v>
+      </c>
+      <c r="I18" s="29">
         <v>560000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="39">
         <v>41559.470138888886</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="39">
         <v>41561.449305555558</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="29">
+        <v>0</v>
+      </c>
+      <c r="I19" s="29">
         <v>560000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="39">
         <v>41561.449305555558</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="39">
         <v>41562.449305555558</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="29">
+        <v>0</v>
+      </c>
+      <c r="I20" s="29">
         <v>320000.00000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="39">
         <v>41561.449305555558</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="39">
         <v>41562.449305555558</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="29">
+        <v>0</v>
+      </c>
+      <c r="I21" s="29">
         <v>280000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="39">
         <v>41562.449305555558</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="39">
         <v>41563.449305555558</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="29">
+        <v>0</v>
+      </c>
+      <c r="I22" s="29">
         <v>280000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="39">
         <v>41562.449305555558</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="39">
         <v>41563.449305555558</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="29">
+        <v>0</v>
+      </c>
+      <c r="I23" s="29">
         <v>280000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="39">
         <v>41563.449305555558</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="39">
         <v>41564.449305555558</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="29">
+        <v>0</v>
+      </c>
+      <c r="I24" s="29">
         <v>320000.00000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="39">
         <v>41563.449305555558</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="39">
         <v>41564.449305555558</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="29">
+        <v>0</v>
+      </c>
+      <c r="I25" s="29">
         <v>280000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="39">
         <v>41564.449305555558</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="39">
         <v>41565.449305555558</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="29">
+        <v>0</v>
+      </c>
+      <c r="I26" s="29">
         <v>320000.00000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="39">
         <v>41565.449305555558</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="39">
         <v>41566.470138888886</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="29">
+        <v>0</v>
+      </c>
+      <c r="I27" s="29">
         <v>280000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
         <v>5.2</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="39">
         <v>41566.470138888886</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="39">
         <v>41573.803472222222</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="31">
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="29">
+        <v>0</v>
+      </c>
+      <c r="I28" s="29">
         <v>2280000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="39">
         <v>41566.470138888886</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="39">
         <v>41572.449305555558</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="29">
         <v>1680000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="39">
         <v>41572.449305555558</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="39">
         <v>41573.470138888886</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="29">
+        <v>0</v>
+      </c>
+      <c r="I30" s="29">
         <v>280000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="39">
         <v>41573.470138888886</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="39">
         <v>41573.803472222222</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="29">
+        <v>0</v>
+      </c>
+      <c r="I31" s="29">
         <v>320000.00000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
         <v>5.3</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="39">
         <v>41573.803472222222</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="39">
         <v>41586.449305555558</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="31">
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
+      <c r="I32" s="29">
         <v>3400000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="39">
         <v>41573.803472222222</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="39">
         <v>41578.449305555558</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="29">
+        <v>0</v>
+      </c>
+      <c r="I33" s="29">
         <v>1120000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="39">
         <v>41578.449305555558</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="39">
         <v>41584.449305555558</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="29">
+        <v>0</v>
+      </c>
+      <c r="I34" s="29">
         <v>1680000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="39">
         <v>41584.449305555558</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="39">
         <v>41585.449305555558</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="29">
+        <v>0</v>
+      </c>
+      <c r="I35" s="29">
         <v>320000.00000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="39">
         <v>41585.449305555558</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="39">
         <v>41586.449305555558</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="29">
+        <v>0</v>
+      </c>
+      <c r="I36" s="29">
         <v>280000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
         <v>5.4</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="39">
         <v>41586.449305555558</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="39">
         <v>41604.449305555558</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="31">
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="29">
+        <v>0</v>
+      </c>
+      <c r="I37" s="29">
         <v>5200000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="39">
         <v>41586.449305555558</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="39">
         <v>41591.449305555558</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="31">
+      <c r="H38" s="29">
+        <v>0</v>
+      </c>
+      <c r="I38" s="29">
         <v>1400000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="39">
         <v>41591.449305555558</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="39">
         <v>41594.803472222222</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="29">
+        <v>0</v>
+      </c>
+      <c r="I39" s="29">
         <v>1120000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="39">
         <v>41594.803472222222</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="39">
         <v>41600.449305555558</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="31">
+      <c r="H40" s="29">
+        <v>0</v>
+      </c>
+      <c r="I40" s="29">
         <v>1400000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="39">
         <v>41600.449305555558</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="39">
         <v>41601.803472222222</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H41" s="31">
+      <c r="H41" s="29">
+        <v>0</v>
+      </c>
+      <c r="I41" s="29">
         <v>640000.00000000012</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="39">
         <v>41601.803472222222</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="39">
         <v>41604.449305555558</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="G42" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H42" s="31">
+      <c r="H42" s="29">
+        <v>0</v>
+      </c>
+      <c r="I42" s="29">
         <v>640000.00000000012</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
         <v>5.5</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="39">
         <v>41604.449305555558</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="39">
         <v>41617.449305555558</v>
       </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="31">
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="29">
+        <v>0</v>
+      </c>
+      <c r="I43" s="29">
         <v>3720000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="39">
         <v>41604.449305555558</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="39">
         <v>41607.449305555558</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="31">
+      <c r="H44" s="29">
+        <v>0</v>
+      </c>
+      <c r="I44" s="29">
         <v>840000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="39">
         <v>41607.449305555558</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="39">
         <v>41611.449305555558</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="G45" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="31">
+      <c r="H45" s="29">
+        <v>0</v>
+      </c>
+      <c r="I45" s="29">
         <v>1120000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="39">
         <v>41611.449305555558</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="39">
         <v>41615.470138888886</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="31">
+      <c r="H46" s="29">
+        <v>0</v>
+      </c>
+      <c r="I46" s="29">
         <v>1120000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D47" s="39">
         <v>41615.470138888886</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="39">
         <v>41615.803472222222</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G47" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H47" s="31">
+      <c r="H47" s="29">
+        <v>0</v>
+      </c>
+      <c r="I47" s="29">
         <v>320000.00000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
+    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="39">
         <v>41615.803472222222</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="39">
         <v>41617.449305555558</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="33" t="s">
+      <c r="G48" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H48" s="31">
+      <c r="H48" s="29">
+        <v>0</v>
+      </c>
+      <c r="I48" s="29">
         <v>320000.00000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="32">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="30">
         <v>5.6</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="39">
         <v>41617.449305555558</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="39">
         <v>41620.449305555558</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="G49" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="31">
+      <c r="H49" s="29">
+        <v>0</v>
+      </c>
+      <c r="I49" s="29">
         <v>840000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="32">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
         <v>5.7</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="43">
+      <c r="D50" s="39">
         <v>41620.449305555558</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="39">
         <v>41624.449305555558</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="G50" s="33" t="s">
+      <c r="G50" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="31">
+      <c r="H50" s="29">
+        <v>0</v>
+      </c>
+      <c r="I50" s="29">
         <v>1120000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="32">
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="30">
         <v>6</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="43">
+      <c r="D51" s="39">
         <v>41624.449305555558</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="39">
         <v>41631.449305555558</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="33" t="s">
+      <c r="G51" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H51" s="31">
+      <c r="H51" s="29">
+        <v>0</v>
+      </c>
+      <c r="I51" s="29">
         <v>2240000</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="32">
+    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="30">
         <v>7</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="43">
+      <c r="D52" s="39">
         <v>41631.449305555558</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="39">
         <v>41634.449305555558</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G52" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="31">
+      <c r="H52" s="29">
+        <v>0</v>
+      </c>
+      <c r="I52" s="29">
         <v>840000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="32">
+    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="30">
         <v>8</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="43">
+      <c r="D53" s="39">
         <v>41634.449305555558</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="39">
         <v>41636.470138888886</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H53" s="31">
+      <c r="H53" s="29">
+        <v>0</v>
+      </c>
+      <c r="I53" s="29">
         <v>640000.00000000012</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="32">
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="30">
         <v>9</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="39">
         <v>41636.470138888886</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="39">
         <v>41640.449305555558</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H54" s="31">
+      <c r="H54" s="29">
+        <v>0</v>
+      </c>
+      <c r="I54" s="29">
         <v>1280000.0000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="32">
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="30">
         <v>10</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="43">
+      <c r="D55" s="39">
         <v>41640.449305555558</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="39">
         <v>41641.449305555558</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="H55" s="31">
+      <c r="H55" s="29">
+        <v>0</v>
+      </c>
+      <c r="I55" s="29">
         <v>60000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="32">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="34">
         <v>11</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="40">
+        <v>41646.449305555558</v>
+      </c>
+      <c r="E56" s="40">
+        <v>41647.449305555558</v>
+      </c>
+      <c r="F56" s="36"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="29">
+        <f>SUM(H57:H59)</f>
+        <v>380000</v>
+      </c>
+      <c r="I56" s="29"/>
+    </row>
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="30">
+        <v>11.1</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="39">
+        <v>41646.449305555558</v>
+      </c>
+      <c r="E57" s="39">
+        <v>41647.449305555558</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="29">
+        <v>200000</v>
+      </c>
+      <c r="I57" s="29">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="30">
+        <v>11.2</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="39">
+        <v>41646.449305555558</v>
+      </c>
+      <c r="E58" s="39">
+        <v>41647.449305555558</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H58" s="29">
+        <v>80000</v>
+      </c>
+      <c r="I58" s="29">
+        <v>80000.000000000015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="30">
+        <v>11.3</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="39">
+        <v>41646.449305555558</v>
+      </c>
+      <c r="E59" s="39">
+        <v>41647.449305555558</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="31"/>
+      <c r="H59" s="29">
+        <v>100000</v>
+      </c>
+      <c r="I59" s="29">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="30">
+        <v>12</v>
+      </c>
+      <c r="B60" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C60" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="43">
+      <c r="D60" s="39">
         <v>41641.449305555558</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E60" s="39">
         <v>41646.449305555558</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F60" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="G56" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="31">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="36">
-        <v>12</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="44">
-        <v>41646.449305555558</v>
-      </c>
-      <c r="E57" s="44">
-        <v>41647.449305555558</v>
-      </c>
-      <c r="F57" s="38"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="31"/>
-    </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="32">
-        <v>12.1</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="43">
-        <v>41646.449305555558</v>
-      </c>
-      <c r="E58" s="43">
-        <v>41647.449305555558</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G58" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="H58" s="31">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="32">
-        <v>12.2</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="43">
-        <v>41646.449305555558</v>
-      </c>
-      <c r="E59" s="43">
-        <v>41647.449305555558</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="H59" s="31">
-        <v>80000.000000000015</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="32">
-        <v>12.3</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="43">
-        <v>41646.449305555558</v>
-      </c>
-      <c r="E60" s="43">
-        <v>41647.449305555558</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60" s="33"/>
-      <c r="H60" s="31">
-        <v>100000</v>
+      <c r="G60" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="H60" s="29">
+        <v>0</v>
+      </c>
+      <c r="I60" s="82">
+        <v>6000000</v>
       </c>
     </row>
   </sheetData>
@@ -5576,1071 +6009,1076 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="20070" topLeftCell="K1"/>
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="N5" sqref="N5"/>
       <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="51" customWidth="1"/>
-    <col min="2" max="5" width="17.5703125" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="48"/>
-    <col min="9" max="9" width="15.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="16.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="48"/>
+    <col min="1" max="1" width="13.28515625" style="47" customWidth="1"/>
+    <col min="2" max="5" width="17.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="44"/>
+    <col min="9" max="9" width="15.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="16.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="62">
+      <c r="B1" s="58">
         <v>0.08</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="I1" s="74" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="I1" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="J1" s="75">
+      <c r="J1" s="71">
         <v>0.08</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
-      <c r="B2" s="98" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="61" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98" t="s">
+      <c r="I2" s="86"/>
+      <c r="J2" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="61" t="s">
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="57" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="60">
-        <v>0</v>
-      </c>
-      <c r="C3" s="60">
+    <row r="3" spans="1:15" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="97"/>
+      <c r="B3" s="56">
+        <v>0</v>
+      </c>
+      <c r="C3" s="56">
         <v>1</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="56">
         <v>2</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="56">
         <v>3</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="56">
         <v>4</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="60">
-        <v>0</v>
-      </c>
-      <c r="K3" s="60">
+      <c r="G3" s="56"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="56">
+        <v>0</v>
+      </c>
+      <c r="K3" s="56">
         <v>1</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="56">
         <v>2</v>
       </c>
-      <c r="M3" s="60">
+      <c r="M3" s="56">
         <v>3</v>
       </c>
-      <c r="N3" s="60">
+      <c r="N3" s="56">
         <v>4</v>
       </c>
-      <c r="O3" s="60"/>
-    </row>
-    <row r="4" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="O3" s="56"/>
+    </row>
+    <row r="4" spans="1:15" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="73">
+      <c r="B4" s="69">
         <f>1/POWER((1+B1),B3)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="69">
         <f>1/POWER((1+B1),C3)</f>
         <v>0.92592592592592582</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="69">
         <f>1/POWER((1+B1),D3)</f>
         <v>0.85733882030178321</v>
       </c>
-      <c r="E4" s="73">
+      <c r="E4" s="69">
         <f>1/POWER((1+B1),E3)</f>
         <v>0.79383224102016958</v>
       </c>
-      <c r="F4" s="73">
+      <c r="F4" s="69">
         <f>1/POWER((1+B1),F3)</f>
         <v>0.73502985279645328</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="I4" s="73" t="s">
+      <c r="G4" s="69"/>
+      <c r="I4" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J4" s="69">
         <f>1/POWER((1+J1),J3)</f>
         <v>1</v>
       </c>
-      <c r="K4" s="73">
+      <c r="K4" s="69">
         <f>1/POWER((1+J1),K3)</f>
         <v>0.92592592592592582</v>
       </c>
-      <c r="L4" s="73">
+      <c r="L4" s="69">
         <f>1/POWER((1+J1),L3)</f>
         <v>0.85733882030178321</v>
       </c>
-      <c r="M4" s="73">
+      <c r="M4" s="69">
         <f>1/POWER((1+J1),M3)</f>
         <v>0.79383224102016958</v>
       </c>
-      <c r="N4" s="73">
+      <c r="N4" s="69">
         <f>1/POWER((1+J1),N3)</f>
         <v>0.73502985279645328</v>
       </c>
-      <c r="O4" s="73"/>
+      <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="61">
-        <v>0</v>
-      </c>
-      <c r="C5" s="61">
+      <c r="B5" s="57">
+        <v>0</v>
+      </c>
+      <c r="C5" s="57">
         <v>15000000</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="57">
         <v>32000000</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="57">
         <v>47000000</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="57">
         <v>35000000</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="57">
         <f>SUM(B5:F5)</f>
         <v>129000000</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="61">
-        <v>0</v>
-      </c>
-      <c r="K5" s="61">
+      <c r="J5" s="57">
+        <v>0</v>
+      </c>
+      <c r="K5" s="57">
         <v>15000000</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="57">
         <v>32000000</v>
       </c>
-      <c r="M5" s="61">
+      <c r="M5" s="57">
         <v>47000000</v>
       </c>
-      <c r="N5" s="61">
+      <c r="N5" s="57">
         <v>35000000</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="57">
         <f>SUM(J5:N5)</f>
         <v>129000000</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="57">
         <f>B5*B4</f>
         <v>0</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="57">
         <f t="shared" ref="C6:F6" si="0">C5*C4</f>
         <v>13888888.888888888</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="57">
         <f t="shared" si="0"/>
         <v>27434842.249657061</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="57">
         <f t="shared" si="0"/>
         <v>37310115.327947967</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="57">
         <f t="shared" si="0"/>
         <v>25726044.847875863</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="I6" s="37" t="s">
+      <c r="G6" s="57"/>
+      <c r="I6" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="61">
+      <c r="J6" s="57">
         <v>55000000</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="57">
         <v>13000000</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="57">
         <v>10000000</v>
       </c>
-      <c r="M6" s="61">
+      <c r="M6" s="57">
         <v>7000000</v>
       </c>
-      <c r="N6" s="61">
+      <c r="N6" s="57">
         <v>5000000</v>
       </c>
-      <c r="O6" s="61">
+      <c r="O6" s="57">
         <f>SUM(J6:N6)</f>
         <v>90000000</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="57">
         <v>55000000</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="57">
         <v>13000000</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="57">
         <v>10000000</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="57">
         <v>7000000</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="57">
         <v>5000000</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="57">
         <f>SUM(B7:F7)</f>
         <v>90000000</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="61">
+      <c r="J7" s="57">
         <f>J5-J6</f>
         <v>-55000000</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="57">
         <f t="shared" ref="K7" si="1">K5-K6</f>
         <v>2000000</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="57">
         <f t="shared" ref="L7" si="2">L5-L6</f>
         <v>22000000</v>
       </c>
-      <c r="M7" s="61">
+      <c r="M7" s="57">
         <f t="shared" ref="M7" si="3">M5-M6</f>
         <v>40000000</v>
       </c>
-      <c r="N7" s="61">
+      <c r="N7" s="57">
         <f t="shared" ref="N7" si="4">N5-N6</f>
         <v>30000000</v>
       </c>
-      <c r="O7" s="61">
+      <c r="O7" s="57">
         <f t="shared" ref="O7" si="5">O5-O6</f>
         <v>39000000</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="57">
         <f>B7*B4</f>
         <v>55000000</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="57">
         <f t="shared" ref="C8:F8" si="6">C7*C4</f>
         <v>12037037.037037035</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="57">
         <f t="shared" si="6"/>
         <v>8573388.2030178327</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="57">
         <f t="shared" si="6"/>
         <v>5556825.6871411875</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="57">
         <f t="shared" si="6"/>
         <v>3675149.2639822662</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="I8" s="37" t="s">
+      <c r="G8" s="57"/>
+      <c r="I8" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="72">
         <f>NPV(J1,K7:N7) + J7</f>
         <v>19517491.123191461</v>
       </c>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="57">
         <f t="shared" ref="B9:G9" si="7">B5-B7</f>
         <v>-55000000</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="57">
         <f t="shared" si="7"/>
         <v>2000000</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="57">
         <f t="shared" si="7"/>
         <v>22000000</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="57">
         <f t="shared" si="7"/>
         <v>40000000</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="57">
         <f t="shared" si="7"/>
         <v>30000000</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="57">
         <f t="shared" si="7"/>
         <v>39000000</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="51">
         <f>(O5-O6)/O6</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="57">
         <f>B9*B4</f>
         <v>-55000000</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="57">
         <f>C9*C4</f>
         <v>1851851.8518518517</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="57">
         <f>D9*D4</f>
         <v>18861454.04663923</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="57">
         <f>E9*E4</f>
         <v>31753289.640806783</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="57">
         <f>F9*F4</f>
         <v>22050895.583893597</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
+      <c r="G10" s="57"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="57">
         <f>B10</f>
         <v>-55000000</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="57">
         <f>B11+C10</f>
         <v>-53148148.148148149</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="57">
         <f t="shared" ref="D11:F11" si="8">C11+D10</f>
         <v>-34286694.101508915</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="57">
         <f t="shared" si="8"/>
         <v>-2533404.4607021324</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="57">
         <f t="shared" si="8"/>
         <v>19517491.123191465</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
+      <c r="G11" s="57"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
     </row>
     <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="92">
+      <c r="B12" s="89">
         <f>SUM(B10:F10)</f>
         <v>19517491.123191465</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="94"/>
-      <c r="J12" s="50"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="58"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="I17" s="74" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="I17" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="J17" s="75">
+      <c r="J17" s="71">
         <v>0.2</v>
       </c>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="61" t="s">
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="57" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="58">
         <v>0.2</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="60">
-        <v>0</v>
-      </c>
-      <c r="K19" s="60">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="56">
+        <v>0</v>
+      </c>
+      <c r="K19" s="56">
         <v>1</v>
       </c>
-      <c r="L19" s="60">
+      <c r="L19" s="56">
         <v>2</v>
       </c>
-      <c r="M19" s="60">
+      <c r="M19" s="56">
         <v>3</v>
       </c>
-      <c r="N19" s="60">
+      <c r="N19" s="56">
         <v>4</v>
       </c>
-      <c r="O19" s="60"/>
+      <c r="O19" s="56"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="88" t="s">
+      <c r="A20" s="96"/>
+      <c r="B20" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="61" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="I20" s="73" t="s">
+      <c r="I20" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="69">
         <f>1/POWER((1+J17),J19)</f>
         <v>1</v>
       </c>
-      <c r="K20" s="73">
+      <c r="K20" s="69">
         <f>1/POWER((1+J17),K19)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="L20" s="73">
+      <c r="L20" s="69">
         <f>1/POWER((1+J17),L19)</f>
         <v>0.69444444444444442</v>
       </c>
-      <c r="M20" s="73">
+      <c r="M20" s="69">
         <f>1/POWER((1+J17),M19)</f>
         <v>0.57870370370370372</v>
       </c>
-      <c r="N20" s="73">
+      <c r="N20" s="69">
         <f>1/POWER((1+J17),N19)</f>
         <v>0.48225308641975312</v>
       </c>
-      <c r="O20" s="73"/>
+      <c r="O20" s="69"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="60">
-        <v>0</v>
-      </c>
-      <c r="C21" s="60">
+      <c r="A21" s="97"/>
+      <c r="B21" s="56">
+        <v>0</v>
+      </c>
+      <c r="C21" s="56">
         <v>1</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="56">
         <v>2</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="56">
         <v>3</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="56">
         <v>4</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="I21" s="37" t="s">
+      <c r="G21" s="56"/>
+      <c r="I21" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="J21" s="61">
-        <v>0</v>
-      </c>
-      <c r="K21" s="61">
+      <c r="J21" s="57">
+        <v>0</v>
+      </c>
+      <c r="K21" s="57">
         <v>15000000</v>
       </c>
-      <c r="L21" s="61">
+      <c r="L21" s="57">
         <v>32000000</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="57">
         <v>47000000</v>
       </c>
-      <c r="N21" s="61">
+      <c r="N21" s="57">
         <v>35000000</v>
       </c>
-      <c r="O21" s="61">
+      <c r="O21" s="57">
         <f>SUM(J21:N21)</f>
         <v>129000000</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="B22" s="73">
+      <c r="B22" s="69">
         <f>1/POWER((1+B19),B21)</f>
         <v>1</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="69">
         <f>1/POWER((1+B19),C21)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D22" s="73">
+      <c r="D22" s="69">
         <f>1/POWER((1+B19),D21)</f>
         <v>0.69444444444444442</v>
       </c>
-      <c r="E22" s="73">
+      <c r="E22" s="69">
         <f>1/POWER((1+B19),E21)</f>
         <v>0.57870370370370372</v>
       </c>
-      <c r="F22" s="73">
+      <c r="F22" s="69">
         <f>1/POWER((1+B19),F21)</f>
         <v>0.48225308641975312</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="I22" s="37" t="s">
+      <c r="G22" s="69"/>
+      <c r="I22" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="J22" s="61">
+      <c r="J22" s="57">
         <v>55000000</v>
       </c>
-      <c r="K22" s="61">
+      <c r="K22" s="57">
         <v>13000000</v>
       </c>
-      <c r="L22" s="61">
+      <c r="L22" s="57">
         <v>10000000</v>
       </c>
-      <c r="M22" s="61">
+      <c r="M22" s="57">
         <v>7000000</v>
       </c>
-      <c r="N22" s="61">
+      <c r="N22" s="57">
         <v>5000000</v>
       </c>
-      <c r="O22" s="61">
+      <c r="O22" s="57">
         <f>SUM(J22:N22)</f>
         <v>90000000</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="61">
-        <v>0</v>
-      </c>
-      <c r="C23" s="61">
+      <c r="B23" s="57">
+        <v>0</v>
+      </c>
+      <c r="C23" s="57">
         <v>15000000</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="57">
         <v>32000000</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="57">
         <v>47000000</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="57">
         <v>35000000</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="57">
         <f>SUM(B23:F23)</f>
         <v>129000000</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="J23" s="61">
+      <c r="J23" s="57">
         <f>J21-J22</f>
         <v>-55000000</v>
       </c>
-      <c r="K23" s="61">
+      <c r="K23" s="57">
         <f t="shared" ref="K23" si="9">K21-K22</f>
         <v>2000000</v>
       </c>
-      <c r="L23" s="61">
+      <c r="L23" s="57">
         <f t="shared" ref="L23" si="10">L21-L22</f>
         <v>22000000</v>
       </c>
-      <c r="M23" s="61">
+      <c r="M23" s="57">
         <f t="shared" ref="M23" si="11">M21-M22</f>
         <v>40000000</v>
       </c>
-      <c r="N23" s="61">
+      <c r="N23" s="57">
         <f t="shared" ref="N23" si="12">N21-N22</f>
         <v>30000000</v>
       </c>
-      <c r="O23" s="61">
+      <c r="O23" s="57">
         <f t="shared" ref="O23" si="13">O21-O22</f>
         <v>39000000</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="57">
         <f>B23*B22</f>
         <v>0</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="57">
         <f t="shared" ref="C24" si="14">C23*C22</f>
         <v>12500000</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="57">
         <f t="shared" ref="D24" si="15">D23*D22</f>
         <v>22222222.22222222</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="57">
         <f t="shared" ref="E24" si="16">E23*E22</f>
         <v>27199074.074074075</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="57">
         <f t="shared" ref="F24" si="17">F23*F22</f>
         <v>16878858.024691358</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="I24" s="37" t="s">
+      <c r="G24" s="57"/>
+      <c r="I24" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="72">
         <f>NPV(J17,K23:N23) + J23</f>
         <v>-439814.81481480598</v>
       </c>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="B25" s="61">
+      <c r="B25" s="57">
         <v>55000000</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="57">
         <v>13000000</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="57">
         <v>10000000</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="57">
         <v>7000000</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="57">
         <v>5000000</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="57">
         <f>SUM(B25:F25)</f>
         <v>90000000</v>
       </c>
-      <c r="I25" s="54" t="s">
+      <c r="I25" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="51">
         <f>(O21-O22)/O22</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
     </row>
     <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B26" s="61">
+      <c r="B26" s="57">
         <f>B25*B22</f>
         <v>55000000</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="57">
         <f t="shared" ref="C26" si="18">C25*C22</f>
         <v>10833333.333333334</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="57">
         <f t="shared" ref="D26" si="19">D25*D22</f>
         <v>6944444.444444444</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="57">
         <f t="shared" ref="E26" si="20">E25*E22</f>
         <v>4050925.9259259258</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26" s="57">
         <f t="shared" ref="F26" si="21">F25*F22</f>
         <v>2411265.4320987654</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="57"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="61">
+      <c r="B27" s="57">
         <f t="shared" ref="B27:G27" si="22">B23-B25</f>
         <v>-55000000</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="57">
         <f t="shared" si="22"/>
         <v>2000000</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="57">
         <f t="shared" si="22"/>
         <v>22000000</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="57">
         <f t="shared" si="22"/>
         <v>40000000</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="57">
         <f t="shared" si="22"/>
         <v>30000000</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="57">
         <f t="shared" si="22"/>
         <v>39000000</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="B28" s="61">
+      <c r="B28" s="57">
         <f>B27*B22</f>
         <v>-55000000</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="57">
         <f>C27*C22</f>
         <v>1666666.6666666667</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="57">
         <f>D27*D22</f>
         <v>15277777.777777778</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="57">
         <f>E27*E22</f>
         <v>23148148.148148149</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="57">
         <f>F27*F22</f>
         <v>14467592.592592593</v>
       </c>
-      <c r="G28" s="61"/>
+      <c r="G28" s="57"/>
     </row>
     <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B29" s="61">
+      <c r="B29" s="57">
         <f>B28</f>
         <v>-55000000</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="57">
         <f>B29+C28</f>
         <v>-53333333.333333336</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="57">
         <f t="shared" ref="D29" si="23">C29+D28</f>
         <v>-38055555.55555556</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="57">
         <f t="shared" ref="E29" si="24">D29+E28</f>
         <v>-14907407.40740741</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="57">
         <f t="shared" ref="F29" si="25">E29+F28</f>
         <v>-439814.81481481716</v>
       </c>
-      <c r="G29" s="61"/>
+      <c r="G29" s="57"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="92">
+      <c r="B30" s="89">
         <f>SUM(B28:F28)</f>
         <v>-439814.81481481716</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="94"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="62" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="67">
-        <v>0</v>
-      </c>
-      <c r="B38" s="31">
+      <c r="A38" s="63">
+        <v>0</v>
+      </c>
+      <c r="B38" s="29">
         <v>55000000</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="29">
         <f>B38</f>
         <v>55000000</v>
       </c>
-      <c r="D38" s="31">
-        <v>0</v>
-      </c>
-      <c r="E38" s="31">
+      <c r="D38" s="29">
+        <v>0</v>
+      </c>
+      <c r="E38" s="29">
         <f>D38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="78"/>
+      <c r="F38" s="73"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="67">
+      <c r="A39" s="63">
         <v>1</v>
       </c>
-      <c r="B39" s="61">
+      <c r="B39" s="57">
         <v>13000000</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="29">
         <f>C38+B39</f>
         <v>68000000</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="29">
         <v>15000000</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="29">
         <f>D39+E38</f>
         <v>15000000</v>
       </c>
-      <c r="F39" s="78"/>
+      <c r="F39" s="73"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="67">
+      <c r="A40" s="63">
         <v>2</v>
       </c>
-      <c r="B40" s="61">
+      <c r="B40" s="57">
         <v>10000000</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="29">
         <f t="shared" ref="C40:C42" si="26">C39+B40</f>
         <v>78000000</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="29">
         <v>32000000</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="29">
         <f t="shared" ref="E40:E42" si="27">D40+E39</f>
         <v>47000000</v>
       </c>
-      <c r="F40" s="78"/>
+      <c r="F40" s="73"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="67">
+      <c r="A41" s="63">
         <v>3</v>
       </c>
-      <c r="B41" s="61">
+      <c r="B41" s="57">
         <v>7000000</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="29">
         <f t="shared" si="26"/>
         <v>85000000</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="29">
         <v>47000000</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="29">
         <f t="shared" si="27"/>
         <v>94000000</v>
       </c>
-      <c r="F41" s="78"/>
+      <c r="F41" s="73"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="67">
+      <c r="A42" s="63">
         <v>4</v>
       </c>
-      <c r="B42" s="61">
+      <c r="B42" s="57">
         <v>5000000</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="29">
         <f t="shared" si="26"/>
         <v>90000000</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="29">
         <v>35000000</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="29">
         <f t="shared" si="27"/>
         <v>129000000</v>
       </c>
-      <c r="F42" s="78"/>
+      <c r="F42" s="73"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:N2"/>
@@ -6648,14 +7086,2603 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="98" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="98" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="98" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="98" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.28515625" style="99" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="101" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="102" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" s="102" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="29">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <v>29334103.902548805</v>
+      </c>
+      <c r="E2" s="29">
+        <v>0</v>
+      </c>
+      <c r="F2" s="29">
+        <v>-29334103.902548805</v>
+      </c>
+      <c r="G2" s="29">
+        <v>51970000</v>
+      </c>
+      <c r="H2" s="85">
+        <v>55000000</v>
+      </c>
+      <c r="I2" s="29">
+        <v>3030000</v>
+      </c>
+      <c r="J2" s="40">
+        <v>41512.333333333336</v>
+      </c>
+      <c r="K2" s="40">
+        <v>42371.803472222222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <v>2103.902548803499</v>
+      </c>
+      <c r="E3" s="29">
+        <v>0</v>
+      </c>
+      <c r="F3" s="29">
+        <v>-2103.902548803499</v>
+      </c>
+      <c r="G3" s="29">
+        <v>200000</v>
+      </c>
+      <c r="H3" s="85">
+        <v>200000</v>
+      </c>
+      <c r="I3" s="29">
+        <v>0</v>
+      </c>
+      <c r="J3" s="40">
+        <v>41512.333333333336</v>
+      </c>
+      <c r="K3" s="40">
+        <v>41519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0</v>
+      </c>
+      <c r="D4" s="29">
+        <v>200000</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29">
+        <v>-200000</v>
+      </c>
+      <c r="G4" s="29">
+        <v>200000</v>
+      </c>
+      <c r="H4" s="85">
+        <v>400000</v>
+      </c>
+      <c r="I4" s="29">
+        <v>200000</v>
+      </c>
+      <c r="J4" s="40">
+        <v>41519.333333333336</v>
+      </c>
+      <c r="K4" s="40">
+        <v>41526.333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="78">
+        <v>0</v>
+      </c>
+      <c r="C5" s="78">
+        <v>0</v>
+      </c>
+      <c r="D5" s="78">
+        <v>5140000</v>
+      </c>
+      <c r="E5" s="78">
+        <v>0</v>
+      </c>
+      <c r="F5" s="78">
+        <v>-5140000</v>
+      </c>
+      <c r="G5" s="78">
+        <v>5562000</v>
+      </c>
+      <c r="H5" s="107">
+        <v>5500000</v>
+      </c>
+      <c r="I5" s="78">
+        <v>-5562000</v>
+      </c>
+      <c r="J5" s="104">
+        <v>41530.449305555558</v>
+      </c>
+      <c r="K5" s="104">
+        <v>41549.449305555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="29">
+        <v>0</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+      <c r="D6" s="29">
+        <v>2080000</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+      <c r="F6" s="29">
+        <v>-2080000</v>
+      </c>
+      <c r="G6" s="29">
+        <v>2304000</v>
+      </c>
+      <c r="H6" s="85">
+        <v>2300000</v>
+      </c>
+      <c r="I6" s="29">
+        <v>-2304000</v>
+      </c>
+      <c r="J6" s="40">
+        <v>41530.449305555558</v>
+      </c>
+      <c r="K6" s="40">
+        <v>41538.470138888886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="29">
+        <v>0</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1100000</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29">
+        <v>-1100000</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1228000</v>
+      </c>
+      <c r="H7" s="85">
+        <v>1300000</v>
+      </c>
+      <c r="I7" s="29">
+        <v>-1228000</v>
+      </c>
+      <c r="J7" s="40">
+        <v>41538.470138888886</v>
+      </c>
+      <c r="K7" s="40">
+        <v>41542.449305555558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="29">
+        <v>0</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1400000</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29">
+        <v>-1400000</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1470000</v>
+      </c>
+      <c r="H8" s="85">
+        <v>1500000</v>
+      </c>
+      <c r="I8" s="29">
+        <v>-1470000</v>
+      </c>
+      <c r="J8" s="40">
+        <v>41542.449305555558</v>
+      </c>
+      <c r="K8" s="40">
+        <v>41547.449305555558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="29">
+        <v>0</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0</v>
+      </c>
+      <c r="D9" s="29">
+        <v>560000</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>-560000</v>
+      </c>
+      <c r="G9" s="29">
+        <v>560000</v>
+      </c>
+      <c r="H9" s="85">
+        <v>600000</v>
+      </c>
+      <c r="I9" s="29">
+        <v>-560000</v>
+      </c>
+      <c r="J9" s="40">
+        <v>41547.449305555558</v>
+      </c>
+      <c r="K9" s="40">
+        <v>41549.449305555558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="29">
+        <v>0</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0</v>
+      </c>
+      <c r="D10" s="29">
+        <v>3384000</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>-3384000</v>
+      </c>
+      <c r="G10" s="29">
+        <v>3760000</v>
+      </c>
+      <c r="H10" s="85">
+        <v>3800000</v>
+      </c>
+      <c r="I10" s="29">
+        <v>-3760000</v>
+      </c>
+      <c r="J10" s="40">
+        <v>41549.449305555558</v>
+      </c>
+      <c r="K10" s="40">
+        <v>41557.449305555558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="78">
+        <v>0</v>
+      </c>
+      <c r="C11" s="78">
+        <v>0</v>
+      </c>
+      <c r="D11" s="78">
+        <v>18960000</v>
+      </c>
+      <c r="E11" s="78">
+        <v>0</v>
+      </c>
+      <c r="F11" s="78">
+        <v>-18960000</v>
+      </c>
+      <c r="G11" s="78">
+        <v>20808000</v>
+      </c>
+      <c r="H11" s="107">
+        <v>21000000</v>
+      </c>
+      <c r="I11" s="78">
+        <v>-20808000</v>
+      </c>
+      <c r="J11" s="104">
+        <v>41557.449305555558</v>
+      </c>
+      <c r="K11" s="104">
+        <v>41624.449305555558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="29">
+        <v>0</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0</v>
+      </c>
+      <c r="D12" s="29">
+        <v>3120000</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+      <c r="F12" s="29">
+        <v>-3120000</v>
+      </c>
+      <c r="G12" s="29">
+        <v>3480000</v>
+      </c>
+      <c r="H12" s="85">
+        <v>3500000</v>
+      </c>
+      <c r="I12" s="29">
+        <v>-3480000</v>
+      </c>
+      <c r="J12" s="40">
+        <v>41557.449305555558</v>
+      </c>
+      <c r="K12" s="40">
+        <v>41566.470138888886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="29">
+        <v>0</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0</v>
+      </c>
+      <c r="D13" s="29">
+        <v>2156000</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="29">
+        <v>-2156000</v>
+      </c>
+      <c r="G13" s="29">
+        <v>2368000</v>
+      </c>
+      <c r="H13" s="85">
+        <v>2400000</v>
+      </c>
+      <c r="I13" s="29">
+        <v>-2368000</v>
+      </c>
+      <c r="J13" s="40">
+        <v>41566.470138888886</v>
+      </c>
+      <c r="K13" s="40">
+        <v>41573.803472222222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29">
+        <v>3708000</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+      <c r="F14" s="29">
+        <v>-3708000</v>
+      </c>
+      <c r="G14" s="29">
+        <v>4080000</v>
+      </c>
+      <c r="H14" s="85">
+        <v>4000000</v>
+      </c>
+      <c r="I14" s="29">
+        <v>-4080000</v>
+      </c>
+      <c r="J14" s="40">
+        <v>41573.803472222222</v>
+      </c>
+      <c r="K14" s="40">
+        <v>41586.449305555558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="29">
+        <v>0</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <v>4632000</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0</v>
+      </c>
+      <c r="F15" s="29">
+        <v>-4632000</v>
+      </c>
+      <c r="G15" s="29">
+        <v>5200000</v>
+      </c>
+      <c r="H15" s="85">
+        <v>5400000</v>
+      </c>
+      <c r="I15" s="29">
+        <v>-5200000</v>
+      </c>
+      <c r="J15" s="40">
+        <v>41586.449305555558</v>
+      </c>
+      <c r="K15" s="40">
+        <v>41604.449305555558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="29">
+        <v>0</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0</v>
+      </c>
+      <c r="D16" s="29">
+        <v>3524000</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
+      <c r="F16" s="29">
+        <v>-3524000</v>
+      </c>
+      <c r="G16" s="29">
+        <v>3720000</v>
+      </c>
+      <c r="H16" s="85">
+        <v>3800000</v>
+      </c>
+      <c r="I16" s="29">
+        <v>-3720000</v>
+      </c>
+      <c r="J16" s="40">
+        <v>41604.449305555558</v>
+      </c>
+      <c r="K16" s="40">
+        <v>41617.449305555558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="29">
+        <v>0</v>
+      </c>
+      <c r="C17" s="29">
+        <v>0</v>
+      </c>
+      <c r="D17" s="29">
+        <v>756000</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0</v>
+      </c>
+      <c r="F17" s="29">
+        <v>-756000</v>
+      </c>
+      <c r="G17" s="29">
+        <v>840000</v>
+      </c>
+      <c r="H17" s="85">
+        <v>900000</v>
+      </c>
+      <c r="I17" s="29">
+        <v>-840000</v>
+      </c>
+      <c r="J17" s="40">
+        <v>41617.449305555558</v>
+      </c>
+      <c r="K17" s="40">
+        <v>41620.449305555558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="29">
+        <v>0</v>
+      </c>
+      <c r="C18" s="29">
+        <v>0</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1064000</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0</v>
+      </c>
+      <c r="F18" s="29">
+        <v>-1064000</v>
+      </c>
+      <c r="G18" s="29">
+        <v>1120000</v>
+      </c>
+      <c r="H18" s="85">
+        <v>1200000</v>
+      </c>
+      <c r="I18" s="29">
+        <v>-1120000</v>
+      </c>
+      <c r="J18" s="40">
+        <v>41620.449305555558</v>
+      </c>
+      <c r="K18" s="40">
+        <v>41624.449305555558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="29">
+        <v>0</v>
+      </c>
+      <c r="C19" s="29">
+        <v>0</v>
+      </c>
+      <c r="D19" s="29">
+        <v>448000</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0</v>
+      </c>
+      <c r="F19" s="29">
+        <v>-448000</v>
+      </c>
+      <c r="G19" s="29">
+        <v>2240000</v>
+      </c>
+      <c r="H19" s="85">
+        <v>3000000</v>
+      </c>
+      <c r="I19" s="29">
+        <v>-2240000</v>
+      </c>
+      <c r="J19" s="40">
+        <v>41624.449305555558</v>
+      </c>
+      <c r="K19" s="40">
+        <v>41631.449305555558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="29">
+        <v>0</v>
+      </c>
+      <c r="C20" s="29">
+        <v>0</v>
+      </c>
+      <c r="D20" s="29">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0</v>
+      </c>
+      <c r="F20" s="29">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29">
+        <v>840000</v>
+      </c>
+      <c r="H20" s="85">
+        <v>1000000</v>
+      </c>
+      <c r="I20" s="29">
+        <v>-840000</v>
+      </c>
+      <c r="J20" s="40">
+        <v>41631.449305555558</v>
+      </c>
+      <c r="K20" s="40">
+        <v>41634.449305555558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="29">
+        <v>0</v>
+      </c>
+      <c r="C21" s="29">
+        <v>0</v>
+      </c>
+      <c r="D21" s="29">
+        <v>0</v>
+      </c>
+      <c r="E21" s="29">
+        <v>0</v>
+      </c>
+      <c r="F21" s="29">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29">
+        <v>640000.00000000012</v>
+      </c>
+      <c r="H21" s="85">
+        <v>500000</v>
+      </c>
+      <c r="I21" s="29">
+        <v>-640000.00000000012</v>
+      </c>
+      <c r="J21" s="40">
+        <v>41634.449305555558</v>
+      </c>
+      <c r="K21" s="40">
+        <v>41636.470138888886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="29">
+        <v>0</v>
+      </c>
+      <c r="C22" s="29">
+        <v>0</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0</v>
+      </c>
+      <c r="F22" s="29">
+        <v>0</v>
+      </c>
+      <c r="G22" s="29">
+        <v>1280000.0000000002</v>
+      </c>
+      <c r="H22" s="85">
+        <v>1300000</v>
+      </c>
+      <c r="I22" s="29">
+        <v>-1280000.0000000002</v>
+      </c>
+      <c r="J22" s="40">
+        <v>41636.470138888886</v>
+      </c>
+      <c r="K22" s="40">
+        <v>41640.449305555558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="29">
+        <v>0</v>
+      </c>
+      <c r="C23" s="29">
+        <v>0</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0</v>
+      </c>
+      <c r="E23" s="29">
+        <v>0</v>
+      </c>
+      <c r="F23" s="29">
+        <v>0</v>
+      </c>
+      <c r="G23" s="29">
+        <v>60000</v>
+      </c>
+      <c r="H23" s="85">
+        <v>100000</v>
+      </c>
+      <c r="I23" s="29">
+        <v>-60000</v>
+      </c>
+      <c r="J23" s="40">
+        <v>41640.449305555558</v>
+      </c>
+      <c r="K23" s="40">
+        <v>41641.449305555558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="29">
+        <v>0</v>
+      </c>
+      <c r="C24" s="29">
+        <v>0</v>
+      </c>
+      <c r="D24" s="29">
+        <v>0</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0</v>
+      </c>
+      <c r="F24" s="29">
+        <v>0</v>
+      </c>
+      <c r="G24" s="29">
+        <v>380000</v>
+      </c>
+      <c r="H24" s="85">
+        <v>500000</v>
+      </c>
+      <c r="I24" s="29">
+        <v>-380000</v>
+      </c>
+      <c r="J24" s="40">
+        <v>41641.449305555558</v>
+      </c>
+      <c r="K24" s="40">
+        <v>41642.449305555558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="29">
+        <v>0</v>
+      </c>
+      <c r="C25" s="29">
+        <v>0</v>
+      </c>
+      <c r="D25" s="29">
+        <v>0</v>
+      </c>
+      <c r="E25" s="29">
+        <v>0</v>
+      </c>
+      <c r="F25" s="29">
+        <v>0</v>
+      </c>
+      <c r="G25" s="29">
+        <v>6000000</v>
+      </c>
+      <c r="H25" s="85">
+        <v>4000000</v>
+      </c>
+      <c r="I25" s="29">
+        <v>-6000000</v>
+      </c>
+      <c r="J25" s="40">
+        <v>41642.449305555558</v>
+      </c>
+      <c r="K25" s="40">
+        <v>42371.803472222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="I1" s="109" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="103">
+        <v>41487</v>
+      </c>
+      <c r="C2" s="103">
+        <v>41518</v>
+      </c>
+      <c r="D2" s="103">
+        <v>41548</v>
+      </c>
+      <c r="E2" s="103">
+        <v>41579</v>
+      </c>
+      <c r="F2" s="103">
+        <v>41609</v>
+      </c>
+      <c r="G2" s="103">
+        <v>41640</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" s="110">
+        <v>41487</v>
+      </c>
+      <c r="K2" s="110">
+        <v>41518</v>
+      </c>
+      <c r="L2" s="110">
+        <v>41548</v>
+      </c>
+      <c r="M2" s="110">
+        <v>41579</v>
+      </c>
+      <c r="N2" s="110">
+        <v>41609</v>
+      </c>
+      <c r="O2" s="110">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="82">
+        <v>200000</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="I3" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="85">
+        <v>200000</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="29">
+        <v>200000</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="I4" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="85">
+        <v>400000</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="108"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="I5" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="111"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="29">
+        <v>2304000</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="I6" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="85">
+        <v>2300000</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="29">
+        <v>1228000</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="I7" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="85">
+        <v>1300000</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="29">
+        <v>1470000</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="I8" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="85">
+        <v>1500000</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29">
+        <v>560000</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="I9" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="85">
+        <v>600000</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="29">
+        <v>3760000</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="I10" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="85">
+        <v>3800000</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" spans="1:15" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="I11" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+    </row>
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="29">
+        <v>3480000</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="I12" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="85">
+        <v>3500000</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="29">
+        <v>2368000</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="I13" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="85">
+        <v>2400000</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="29">
+        <v>4080000</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="36"/>
+      <c r="I14" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="85">
+        <v>4000000</v>
+      </c>
+      <c r="N14" s="29"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="29">
+        <v>5200000</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="36"/>
+      <c r="I15" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="85">
+        <v>5400000</v>
+      </c>
+      <c r="N15" s="29"/>
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="29">
+        <v>3720000</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="I16" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="85">
+        <v>3800000</v>
+      </c>
+      <c r="O16" s="29"/>
+    </row>
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="29">
+        <v>840000</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="I17" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="85">
+        <v>900000</v>
+      </c>
+      <c r="O17" s="29"/>
+    </row>
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="29">
+        <v>1120000</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="I18" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="85">
+        <v>1200000</v>
+      </c>
+      <c r="O18" s="29"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="29">
+        <v>2240000</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="I19" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="85">
+        <v>3000000</v>
+      </c>
+      <c r="O19" s="21"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="29">
+        <v>840000</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="I20" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="85">
+        <v>1000000</v>
+      </c>
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="29">
+        <v>640000.00000000012</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="I21" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="85">
+        <v>500000</v>
+      </c>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="29">
+        <v>1280000.0000000002</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="I22" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="85">
+        <v>1300000</v>
+      </c>
+      <c r="O22" s="21"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="29">
+        <v>60000</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="85">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="29">
+        <v>380000</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="85">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="29">
+        <v>6000000</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="85">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" s="82">
+        <f>SUM(B3:B25)</f>
+        <v>200000</v>
+      </c>
+      <c r="C26" s="82">
+        <f t="shared" ref="C26:G26" si="0">SUM(C3:C25)</f>
+        <v>5202000</v>
+      </c>
+      <c r="D26" s="82">
+        <f t="shared" si="0"/>
+        <v>10168000</v>
+      </c>
+      <c r="E26" s="82">
+        <f t="shared" si="0"/>
+        <v>9280000</v>
+      </c>
+      <c r="F26" s="82">
+        <f t="shared" si="0"/>
+        <v>10680000</v>
+      </c>
+      <c r="G26" s="82">
+        <f t="shared" si="0"/>
+        <v>6440000</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" s="82">
+        <f>SUM(J3:J25)</f>
+        <v>200000</v>
+      </c>
+      <c r="K26" s="82">
+        <f t="shared" ref="K26:O26" si="1">SUM(K3:K25)</f>
+        <v>5500000</v>
+      </c>
+      <c r="L26" s="82">
+        <f t="shared" si="1"/>
+        <v>10300000</v>
+      </c>
+      <c r="M26" s="82">
+        <f t="shared" si="1"/>
+        <v>9400000</v>
+      </c>
+      <c r="N26" s="82">
+        <f t="shared" si="1"/>
+        <v>11700000</v>
+      </c>
+      <c r="O26" s="82">
+        <f t="shared" si="1"/>
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="82">
+        <f>B26</f>
+        <v>200000</v>
+      </c>
+      <c r="C27" s="82">
+        <f>B27+C26</f>
+        <v>5402000</v>
+      </c>
+      <c r="D27" s="82">
+        <f t="shared" ref="D27:G27" si="2">C27+D26</f>
+        <v>15570000</v>
+      </c>
+      <c r="E27" s="82">
+        <f t="shared" si="2"/>
+        <v>24850000</v>
+      </c>
+      <c r="F27" s="82">
+        <f t="shared" si="2"/>
+        <v>35530000</v>
+      </c>
+      <c r="G27" s="82">
+        <f t="shared" si="2"/>
+        <v>41970000</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" s="82">
+        <f>J26</f>
+        <v>200000</v>
+      </c>
+      <c r="K27" s="82">
+        <f>J27+K26</f>
+        <v>5700000</v>
+      </c>
+      <c r="L27" s="82">
+        <f t="shared" ref="L27:O27" si="3">K27+L26</f>
+        <v>16000000</v>
+      </c>
+      <c r="M27" s="82">
+        <f t="shared" si="3"/>
+        <v>25400000</v>
+      </c>
+      <c r="N27" s="82">
+        <f t="shared" si="3"/>
+        <v>37100000</v>
+      </c>
+      <c r="O27" s="82">
+        <f t="shared" si="3"/>
+        <v>41700000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="109" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="109" t="s">
+        <v>215</v>
+      </c>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="112">
+        <v>41487</v>
+      </c>
+      <c r="C32" s="112">
+        <v>41518</v>
+      </c>
+      <c r="D32" s="112">
+        <v>41548</v>
+      </c>
+      <c r="E32" s="112">
+        <v>41579</v>
+      </c>
+      <c r="F32" s="112">
+        <v>41609</v>
+      </c>
+      <c r="G32" s="112">
+        <v>41640</v>
+      </c>
+      <c r="H32" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="J32" s="103">
+        <v>41487</v>
+      </c>
+      <c r="K32" s="103">
+        <v>41518</v>
+      </c>
+      <c r="L32" s="103">
+        <v>41548</v>
+      </c>
+      <c r="M32" s="103">
+        <v>41579</v>
+      </c>
+      <c r="N32" s="103">
+        <v>41609</v>
+      </c>
+      <c r="O32" s="103">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="85">
+        <f>J33*H33</f>
+        <v>200000</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="113">
+        <v>1</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J33" s="82">
+        <v>200000</v>
+      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="85">
+        <f>K34*H34</f>
+        <v>200000</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="113">
+        <v>1</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="J34" s="36"/>
+      <c r="K34" s="29">
+        <v>200000</v>
+      </c>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="113">
+        <v>0.92</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="J35" s="108"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="108"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="108"/>
+    </row>
+    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="85">
+        <f>K36*H36</f>
+        <v>2073600</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="113">
+        <v>0.9</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="J36" s="36"/>
+      <c r="K36" s="29">
+        <v>2304000</v>
+      </c>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+    </row>
+    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="85">
+        <f t="shared" ref="C37:C38" si="4">K37*H37</f>
+        <v>1105200</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="113">
+        <v>0.9</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J37" s="36"/>
+      <c r="K37" s="29">
+        <v>1228000</v>
+      </c>
+      <c r="L37" s="29"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="85">
+        <f t="shared" si="4"/>
+        <v>1396500</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="113">
+        <v>0.95</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J38" s="36"/>
+      <c r="K38" s="29">
+        <v>1470000</v>
+      </c>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+    </row>
+    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="85">
+        <f>L39*H39</f>
+        <v>560000</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="113">
+        <v>1</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J39" s="36"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29">
+        <v>560000</v>
+      </c>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="85">
+        <f t="shared" ref="D40:D43" si="5">L40*H40</f>
+        <v>3384000</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="113">
+        <v>0.9</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="29">
+        <v>3760000</v>
+      </c>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="113">
+        <v>0.91</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+    </row>
+    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="85">
+        <f t="shared" si="5"/>
+        <v>3132000</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="113">
+        <v>0.9</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="29">
+        <v>3480000</v>
+      </c>
+      <c r="M42" s="29"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="85">
+        <f t="shared" si="5"/>
+        <v>2154880</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="113">
+        <v>0.91</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="29">
+        <v>2368000</v>
+      </c>
+      <c r="M43" s="29"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+    </row>
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="85">
+        <f>M44*H44</f>
+        <v>3631200</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="113">
+        <v>0.89</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="29">
+        <v>4080000</v>
+      </c>
+      <c r="N44" s="29"/>
+      <c r="O44" s="36"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="85">
+        <f>M45*H45</f>
+        <v>4628000</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="113">
+        <v>0.89</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="29">
+        <v>5200000</v>
+      </c>
+      <c r="N45" s="29"/>
+      <c r="O45" s="36"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="85">
+        <f>N46*H46</f>
+        <v>3534000</v>
+      </c>
+      <c r="G46" s="29"/>
+      <c r="H46" s="113">
+        <v>0.95</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="29">
+        <v>3720000</v>
+      </c>
+      <c r="O46" s="29"/>
+    </row>
+    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="85">
+        <f t="shared" ref="F47:F52" si="6">N47*H47</f>
+        <v>756000</v>
+      </c>
+      <c r="G47" s="29"/>
+      <c r="H47" s="113">
+        <v>0.9</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="29">
+        <v>840000</v>
+      </c>
+      <c r="O47" s="29"/>
+    </row>
+    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="85">
+        <f t="shared" si="6"/>
+        <v>1064000</v>
+      </c>
+      <c r="G48" s="29"/>
+      <c r="H48" s="113">
+        <v>0.95</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="29">
+        <v>1120000</v>
+      </c>
+      <c r="O48" s="29"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="85">
+        <f t="shared" si="6"/>
+        <v>2016000</v>
+      </c>
+      <c r="G49" s="31"/>
+      <c r="H49" s="113">
+        <v>0.9</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="29">
+        <v>2240000</v>
+      </c>
+      <c r="O49" s="36"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="85">
+        <f t="shared" si="6"/>
+        <v>840000</v>
+      </c>
+      <c r="G50" s="31"/>
+      <c r="H50" s="113">
+        <v>1</v>
+      </c>
+      <c r="I50" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="29">
+        <v>840000</v>
+      </c>
+      <c r="O50" s="36"/>
+    </row>
+    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="85">
+        <f t="shared" si="6"/>
+        <v>640000.00000000012</v>
+      </c>
+      <c r="G51" s="31"/>
+      <c r="H51" s="113">
+        <v>1</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="29">
+        <v>640000.00000000012</v>
+      </c>
+      <c r="O51" s="36"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="85">
+        <f t="shared" si="6"/>
+        <v>1152000.0000000002</v>
+      </c>
+      <c r="G52" s="31"/>
+      <c r="H52" s="113">
+        <v>0.9</v>
+      </c>
+      <c r="I52" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="29">
+        <v>1280000.0000000002</v>
+      </c>
+      <c r="O52" s="36"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="85">
+        <f>O53*H53</f>
+        <v>60000</v>
+      </c>
+      <c r="H53" s="113">
+        <v>1</v>
+      </c>
+      <c r="I53" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="29">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="85">
+        <f t="shared" ref="G54:G55" si="7">O54*H54</f>
+        <v>368600</v>
+      </c>
+      <c r="H54" s="113">
+        <v>0.97</v>
+      </c>
+      <c r="I54" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="29">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="113">
+        <v>0</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="29">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56" s="85">
+        <f>SUM(B33:B55)</f>
+        <v>200000</v>
+      </c>
+      <c r="C56" s="85">
+        <f t="shared" ref="C56" si="8">SUM(C33:C55)</f>
+        <v>4775300</v>
+      </c>
+      <c r="D56" s="85">
+        <f t="shared" ref="D56" si="9">SUM(D33:D55)</f>
+        <v>9230880</v>
+      </c>
+      <c r="E56" s="85">
+        <f t="shared" ref="E56" si="10">SUM(E33:E55)</f>
+        <v>8259200</v>
+      </c>
+      <c r="F56" s="85">
+        <f t="shared" ref="F56" si="11">SUM(F33:F55)</f>
+        <v>10002000</v>
+      </c>
+      <c r="G56" s="85">
+        <f t="shared" ref="G56" si="12">SUM(G33:G55)</f>
+        <v>428600</v>
+      </c>
+      <c r="H56" s="113"/>
+      <c r="I56" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J56" s="82">
+        <f>SUM(J33:J55)</f>
+        <v>200000</v>
+      </c>
+      <c r="K56" s="82">
+        <f t="shared" ref="K56" si="13">SUM(K33:K55)</f>
+        <v>5202000</v>
+      </c>
+      <c r="L56" s="82">
+        <f t="shared" ref="L56" si="14">SUM(L33:L55)</f>
+        <v>10168000</v>
+      </c>
+      <c r="M56" s="82">
+        <f t="shared" ref="M56" si="15">SUM(M33:M55)</f>
+        <v>9280000</v>
+      </c>
+      <c r="N56" s="82">
+        <f t="shared" ref="N56" si="16">SUM(N33:N55)</f>
+        <v>10680000</v>
+      </c>
+      <c r="O56" s="82">
+        <f t="shared" ref="O56" si="17">SUM(O33:O55)</f>
+        <v>6440000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" s="85">
+        <f>B56</f>
+        <v>200000</v>
+      </c>
+      <c r="C57" s="85">
+        <f>B57+C56</f>
+        <v>4975300</v>
+      </c>
+      <c r="D57" s="85">
+        <f t="shared" ref="D57" si="18">C57+D56</f>
+        <v>14206180</v>
+      </c>
+      <c r="E57" s="85">
+        <f t="shared" ref="E57" si="19">D57+E56</f>
+        <v>22465380</v>
+      </c>
+      <c r="F57" s="85">
+        <f t="shared" ref="F57" si="20">E57+F56</f>
+        <v>32467380</v>
+      </c>
+      <c r="G57" s="85">
+        <f t="shared" ref="G57" si="21">F57+G56</f>
+        <v>32895980</v>
+      </c>
+      <c r="H57" s="84"/>
+      <c r="I57" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J57" s="82">
+        <f>J56</f>
+        <v>200000</v>
+      </c>
+      <c r="K57" s="82">
+        <f>J57+K56</f>
+        <v>5402000</v>
+      </c>
+      <c r="L57" s="82">
+        <f t="shared" ref="L57" si="22">K57+L56</f>
+        <v>15570000</v>
+      </c>
+      <c r="M57" s="82">
+        <f t="shared" ref="M57" si="23">L57+M56</f>
+        <v>24850000</v>
+      </c>
+      <c r="N57" s="82">
+        <f t="shared" ref="N57" si="24">M57+N56</f>
+        <v>35530000</v>
+      </c>
+      <c r="O57" s="82">
+        <f t="shared" ref="O57" si="25">N57+O56</f>
+        <v>41970000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="114" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" s="114"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="82">
+        <f>F27</f>
+        <v>35530000</v>
+      </c>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61" s="82">
+        <f>N27</f>
+        <v>37100000</v>
+      </c>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" s="82">
+        <f>F57</f>
+        <v>32467380</v>
+      </c>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="117"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="108" t="s">
+        <v>254</v>
+      </c>
+      <c r="B63" s="82">
+        <f>B62-B60</f>
+        <v>-3062620</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="B64" s="82">
+        <f>B62-B61</f>
+        <v>-4632620</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="108" t="s">
+        <v>256</v>
+      </c>
+      <c r="B65" s="118">
+        <f>B62/B60</f>
+        <v>0.91380185758513932</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="B66" s="118">
+        <f>B62/B61</f>
+        <v>0.87513153638814012</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="115" t="s">
+        <v>258</v>
+      </c>
+      <c r="B67" s="119">
+        <f>B69*B66</f>
+        <v>48132234.501347706</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="108" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68" s="121">
+        <f>130/B66</f>
+        <v>148.54909758656228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="120" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" s="82">
+        <v>55000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="I31:O31"/>
+    <mergeCell ref="A59:B59"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>